--- a/Iteration2_Documents/WorkItemsList_ReserveWell.xlsx
+++ b/Iteration2_Documents/WorkItemsList_ReserveWell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezgitunali/Desktop/Master/3.SEMESTER/IS502/Project/Iteration_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD39EF-AF54-414E-A99E-2C47102E851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44D795-DD79-364C-A7DF-D7269C524DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="680" windowWidth="25300" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Resolved</t>
   </si>
   <si>
-    <t>&lt;Vision.doc&gt;</t>
-  </si>
-  <si>
     <t>Identify stakeholders, end users</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>Mustafa</t>
-  </si>
-  <si>
-    <t>&lt;RiskList.doc&gt;</t>
   </si>
   <si>
     <t>Develop a business case</t>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>Umut</t>
-  </si>
-  <si>
-    <t>&lt;ProjectPlan.doc&gt;</t>
   </si>
   <si>
     <t>Define schedules</t>
@@ -118,9 +109,6 @@
   </si>
   <si>
     <t>Define system-wide requirements</t>
-  </si>
-  <si>
-    <t>&lt;SystemWideRequirements.docx&gt;</t>
   </si>
   <si>
     <t>Define an initial high-level system architecture</t>
@@ -145,9 +133,6 @@
   </si>
   <si>
     <t>Form use-case diagrams</t>
-  </si>
-  <si>
-    <t>&lt;UC3: Update Reservation.docx&gt;</t>
   </si>
   <si>
     <t>Define offline scenarios for internet failures</t>
@@ -321,51 +306,6 @@
     <t>Define Iteration Plan 4</t>
   </si>
   <si>
-    <t>&lt;IterationPlan1.doc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;IterationPlan2.doc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;IterationPlan3.doc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC1: Register by Diner.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC2: Make Reservation.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC4: Exit From a Waitlist.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC5: Manage Notifications .docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC7: Register by Restaurant Manager.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC9: Manage Reservations.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC10: Edit Working Hours.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC11: Edit Capacity.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC12: Display Dashboards.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC13: Manage Restaurant's Waitlist.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC8: Display Reservations by Restaurant Manager.docx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Architecture Notebook.docx&gt;</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -390,19 +330,79 @@
     <t>Manage Notifications</t>
   </si>
   <si>
-    <t>&lt;Design.docx&gt;, &lt;Architecture Notebook.docx&gt;</t>
+    <t>&lt;SystemWideRequirements.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC6: Rate Restaurant.docx&gt;</t>
+    <t>&lt;Architecture Notebook.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC14: Register by Waitstaff.docx&gt;</t>
+    <t>&lt;Design.pdf&gt;, &lt;Architecture Notebook.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC15: Display Reservations by Waitstaff.docx&gt;</t>
+    <t>&lt;UC1: Register by Diner.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC16: Confirm Realized Reservations.docx&gt;</t>
+    <t>&lt;UC2: Make Reservation.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC3: Update Reservation.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC4: Exit From a Waitlist.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC5: Manage Notifications .pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC6: Rate Restaurant.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC7: Register by Restaurant Manager.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC8: Display Reservations by Restaurant Manager.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC9: Manage Reservations.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC10: Edit Working Hours.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC11: Edit Capacity.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC12: Display Dashboards.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC13: Manage Restaurant's Waitlist.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC14: Register by Waitstaff.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC15: Display Reservations by Waitstaff.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC16: Confirm Realized Reservations.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Vision.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RiskList.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IterationPlan1.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IterationPlan2.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IterationPlan3.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ProjectPlan.pdf&gt;</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="113" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="4"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
@@ -944,7 +944,7 @@
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="4"/>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1051,13 +1051,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8">
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="8">
         <v>6</v>
@@ -1088,20 +1088,20 @@
     </row>
     <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="4"/>
@@ -1136,20 +1136,20 @@
     </row>
     <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="4"/>
@@ -1184,20 +1184,20 @@
     </row>
     <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="4"/>
@@ -1232,20 +1232,20 @@
     </row>
     <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8">
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8">
         <v>6</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1287,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
@@ -1328,14 +1328,14 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="10"/>
@@ -1374,14 +1374,14 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="10"/>
@@ -1420,14 +1420,14 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
@@ -1473,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -1521,13 +1521,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="8">
         <v>8</v>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="4"/>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -1584,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="4"/>
@@ -1610,14 +1610,14 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -1656,20 +1656,20 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="20" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <v>2</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6">
         <v>2</v>
@@ -1759,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1805,13 +1805,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6">
         <v>2</v>
@@ -1853,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1890,14 +1890,14 @@
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
@@ -1906,7 +1906,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -1932,20 +1932,20 @@
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -1980,20 +1980,20 @@
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -2028,20 +2028,20 @@
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="8">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -2076,25 +2076,25 @@
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -2120,20 +2120,20 @@
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="8">
         <v>3</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="30" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -2214,20 +2214,20 @@
     </row>
     <row r="31" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
@@ -2262,20 +2262,20 @@
     </row>
     <row r="32" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -2310,20 +2310,20 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B33" s="6">
         <v>2</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -2358,20 +2358,20 @@
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -2406,20 +2406,20 @@
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6">
         <v>2</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -2454,20 +2454,20 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B36" s="6">
         <v>2</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -2502,20 +2502,20 @@
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B37" s="6">
         <v>2</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37" s="8">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
@@ -2559,13 +2559,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2598,20 +2598,20 @@
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B39" s="6">
         <v>2</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" s="8">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -2646,20 +2646,20 @@
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6">
         <v>2</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -2694,20 +2694,20 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B41" s="6">
         <v>2</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
@@ -2742,20 +2742,20 @@
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B42" s="6">
         <v>2</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="6">
         <v>2</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="43" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2799,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="8">
         <v>17</v>
@@ -2838,20 +2838,20 @@
     </row>
     <row r="44" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="8">
         <v>3</v>
@@ -2884,20 +2884,20 @@
     </row>
     <row r="45" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="8">
         <v>5</v>
@@ -2930,20 +2930,20 @@
     </row>
     <row r="46" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="8">
         <v>3</v>
@@ -2976,18 +2976,18 @@
     </row>
     <row r="47" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3020,20 +3020,20 @@
     </row>
     <row r="48" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B48" s="6">
         <v>1</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="8">
         <v>3</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="49" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" s="6">
         <v>2</v>
@@ -3075,13 +3075,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G49" s="8">
         <v>3</v>
@@ -3114,20 +3114,20 @@
     </row>
     <row r="50" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6">
         <v>2</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -3160,20 +3160,20 @@
     </row>
     <row r="51" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" s="6">
         <v>2</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -3206,20 +3206,20 @@
     </row>
     <row r="52" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B52" s="6">
         <v>2</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="6">
         <v>2</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -3252,18 +3252,18 @@
     </row>
     <row r="53" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" s="8">
         <v>3</v>
@@ -3296,20 +3296,20 @@
     </row>
     <row r="54" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="55" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B55" s="6">
         <v>2</v>
@@ -3351,13 +3351,13 @@
         <v>13</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="8">
         <v>32</v>
@@ -3390,20 +3390,20 @@
     </row>
     <row r="56" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6">
         <v>2</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="8">
         <v>5</v>
@@ -3436,20 +3436,20 @@
     </row>
     <row r="57" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B57" s="6">
         <v>2</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E57" s="6">
         <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="8">
         <v>8</v>
@@ -3480,20 +3480,20 @@
     </row>
     <row r="58" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="8">
         <v>8</v>
@@ -3524,18 +3524,18 @@
     </row>
     <row r="59" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E59" s="6">
         <v>3</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
@@ -3566,20 +3566,20 @@
     </row>
     <row r="60" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B60" s="6">
         <v>2</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E60" s="6">
         <v>3</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="8">
         <v>8</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="61" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B61" s="6">
         <v>2</v>
@@ -3621,13 +3621,13 @@
         <v>13</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G61" s="8">
         <v>32</v>
@@ -3660,20 +3660,20 @@
     </row>
     <row r="62" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B62" s="6">
         <v>2</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E62" s="6">
         <v>4</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="8">
         <v>5</v>
@@ -3706,20 +3706,20 @@
     </row>
     <row r="63" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B63" s="6">
         <v>2</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E63" s="6">
         <v>4</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="8">
         <v>8</v>
@@ -3752,20 +3752,20 @@
     </row>
     <row r="64" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B64" s="6">
         <v>2</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6">
         <v>4</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G64" s="8">
         <v>8</v>
@@ -3798,18 +3798,18 @@
     </row>
     <row r="65" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E65" s="6">
         <v>4</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G65" s="8">
         <v>3</v>
@@ -3842,20 +3842,20 @@
     </row>
     <row r="66" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B66" s="6">
         <v>2</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66" s="8">
         <v>8</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="67" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6">
         <v>2</v>
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E67" s="6">
         <v>3</v>
@@ -3934,14 +3934,14 @@
     </row>
     <row r="68" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" s="6">
         <v>2</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E68" s="6">
         <v>3</v>
@@ -3978,14 +3978,14 @@
     </row>
     <row r="69" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B69" s="6">
         <v>2</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E69" s="6">
         <v>3</v>
@@ -4022,14 +4022,14 @@
     </row>
     <row r="70" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B70" s="6">
         <v>2</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E70" s="6">
         <v>3</v>
@@ -4066,12 +4066,12 @@
     </row>
     <row r="71" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E71" s="6">
         <v>3</v>
@@ -4108,14 +4108,14 @@
     </row>
     <row r="72" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B72" s="6">
         <v>2</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="73" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B73" s="6">
         <v>3</v>
@@ -4161,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -4198,14 +4198,14 @@
     </row>
     <row r="74" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B74" s="6">
         <v>3</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E74" s="6">
         <v>4</v>
@@ -4242,14 +4242,14 @@
     </row>
     <row r="75" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B75" s="6">
         <v>3</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E75" s="6">
         <v>4</v>
@@ -4286,14 +4286,14 @@
     </row>
     <row r="76" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B76" s="6">
         <v>3</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E76" s="6">
         <v>4</v>
@@ -4330,12 +4330,12 @@
     </row>
     <row r="77" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E77" s="6">
         <v>4</v>
@@ -4372,14 +4372,14 @@
     </row>
     <row r="78" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E78" s="6">
         <v>4</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="79" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B79" s="6">
         <v>3</v>
@@ -4425,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -4462,14 +4462,14 @@
     </row>
     <row r="80" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
@@ -4506,14 +4506,14 @@
     </row>
     <row r="81" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B81" s="6">
         <v>3</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E81" s="6">
         <v>3</v>
@@ -4550,14 +4550,14 @@
     </row>
     <row r="82" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B82" s="6">
         <v>3</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E82" s="6">
         <v>3</v>
@@ -4594,14 +4594,14 @@
     </row>
     <row r="83" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B83" s="6">
         <v>3</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E83" s="6">
         <v>3</v>
@@ -4638,12 +4638,12 @@
     </row>
     <row r="84" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E84" s="6">
         <v>3</v>
@@ -4680,14 +4680,14 @@
     </row>
     <row r="85" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B85" s="6">
         <v>3</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E85" s="6">
         <v>3</v>
@@ -4724,14 +4724,14 @@
     </row>
     <row r="86" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6">
         <v>2</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E86" s="6">
         <v>3</v>
@@ -4764,14 +4764,14 @@
     </row>
     <row r="87" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6">
         <v>2</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87" s="6">
         <v>2</v>
@@ -4804,14 +4804,14 @@
     </row>
     <row r="88" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B88" s="6">
         <v>2</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88" s="6">
         <v>2</v>
@@ -4844,14 +4844,14 @@
     </row>
     <row r="89" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6">
         <v>2</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E89" s="6">
         <v>3</v>
@@ -4884,20 +4884,20 @@
     </row>
     <row r="90" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B90" s="6">
         <v>2</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E90" s="6">
         <v>3</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="91" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B91" s="6">
         <v>1</v>
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G91" s="8">
         <v>5</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="92" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B92" s="6">
         <v>2</v>
@@ -4983,13 +4983,13 @@
         <v>8</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E92" s="6">
         <v>3</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" s="8">
         <v>20</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="93" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B93" s="6">
         <v>2</v>
@@ -5031,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B94" s="6">
         <v>2</v>
@@ -5077,13 +5077,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E94" s="6">
         <v>3</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G94" s="6">
         <v>22</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B95" s="6">
         <v>2</v>
@@ -5123,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E95" s="6">
         <v>3</v>
@@ -5158,14 +5158,14 @@
     </row>
     <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B96" s="6">
         <v>2</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E96" s="6">
         <v>3</v>
@@ -5202,14 +5202,14 @@
     </row>
     <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B97" s="6">
         <v>2</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E97" s="6">
         <v>3</v>
@@ -5246,14 +5246,14 @@
     </row>
     <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B98" s="6">
         <v>3</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E98" s="6">
         <v>3</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B99" s="6">
         <v>3</v>
@@ -5299,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E99" s="6">
         <v>5</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B100" s="6">
         <v>3</v>
@@ -5345,13 +5345,13 @@
         <v>5</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E100" s="6">
         <v>3</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G100" s="6">
         <v>18</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B101" s="6">
         <v>4</v>
@@ -5393,7 +5393,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E101" s="6">
         <v>4</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B102" s="6">
         <v>4</v>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E102" s="6">
         <v>4</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B103" s="6">
         <v>4</v>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E103" s="6">
         <v>4</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B104" s="6">
         <v>5</v>
@@ -5531,10 +5531,10 @@
         <v>100</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B105" s="6">
         <v>5</v>
@@ -5573,7 +5573,7 @@
         <v>100</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B106" s="6">
         <v>5</v>
@@ -5613,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B107" s="6">
         <v>5</v>
@@ -5657,7 +5657,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B108" s="6">
         <v>5</v>
@@ -5701,7 +5701,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B109" s="6">
         <v>5</v>
@@ -5745,7 +5745,7 @@
         <v>100</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B110" s="6">
         <v>5</v>
@@ -5785,7 +5785,7 @@
         <v>100</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B111" s="6">
         <v>5</v>
@@ -5825,7 +5825,7 @@
         <v>100</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B112" s="6">
         <v>5</v>
@@ -5865,7 +5865,7 @@
         <v>100</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>

--- a/Iteration2_Documents/WorkItemsList_ReserveWell.xlsx
+++ b/Iteration2_Documents/WorkItemsList_ReserveWell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezgitunali/Desktop/Master/3.SEMESTER/IS502/Project/Iteration_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44D795-DD79-364C-A7DF-D7269C524DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81BC6A-0A1C-7547-ABA0-0AA35B7C7188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="680" windowWidth="25300" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29920" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReserveWell" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="128">
   <si>
     <t>Name / Description</t>
   </si>
@@ -339,54 +339,6 @@
     <t>&lt;Design.pdf&gt;, &lt;Architecture Notebook.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC1: Register by Diner.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC2: Make Reservation.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC3: Update Reservation.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC4: Exit From a Waitlist.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC5: Manage Notifications .pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC6: Rate Restaurant.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC7: Register by Restaurant Manager.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC8: Display Reservations by Restaurant Manager.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC9: Manage Reservations.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC10: Edit Working Hours.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC11: Edit Capacity.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC12: Display Dashboards.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC13: Manage Restaurant's Waitlist.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC14: Register by Waitstaff.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC15: Display Reservations by Waitstaff.pdf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;UC16: Confirm Realized Reservations.pdf&gt;</t>
-  </si>
-  <si>
     <t>&lt;Vision.pdf&gt;</t>
   </si>
   <si>
@@ -403,6 +355,63 @@
   </si>
   <si>
     <t>&lt;ProjectPlan.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Register(Diner).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Make Reservation_v1_2.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Manage Reservations.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Update Reservation(Diner).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Exit From the Waitlist.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Manage Notifications.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Rate the Restaurant.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Register(Restaurant Manager).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Display Reservations (Restaurant Manager).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Edit Working Hours.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Manage Restaurant's Waitlist.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Display Dashboards.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Edit Capacity.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Register (Waitstaff).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Display Reservations (Waitstaff).pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UC_Confirm Realized Reservations.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Implementation.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Design.pdf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TestCases.pdf&gt;, &lt;TestScripts.pdf&gt;</t>
   </si>
 </sst>
 </file>
@@ -548,9 +557,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="113" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="4"/>
@@ -918,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
@@ -968,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
@@ -1016,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="4"/>
@@ -1110,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="4"/>
@@ -1158,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="4"/>
@@ -1206,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="4"/>
@@ -1302,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
@@ -1632,12 +1643,12 @@
       <c r="I18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1678,12 +1689,12 @@
         <v>3</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1726,12 +1737,12 @@
       <c r="I20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1772,12 +1783,12 @@
         <v>8</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1820,12 +1831,12 @@
         <v>6</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1866,12 +1877,12 @@
         <v>29</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1905,15 +1916,15 @@
       <c r="F24" s="6"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="I24" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1953,15 +1964,15 @@
       <c r="H25" s="8">
         <v>8</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="I25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2001,15 +2012,15 @@
       <c r="H26" s="8">
         <v>5</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="I26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2049,15 +2060,15 @@
       <c r="H27" s="8">
         <v>5</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="I27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -2093,15 +2104,15 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="I28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -2141,15 +2152,15 @@
       <c r="H29" s="8">
         <v>3</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="I29" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -2189,13 +2200,13 @@
       <c r="H30" s="8">
         <v>29</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2235,15 +2246,15 @@
       <c r="H31" s="8">
         <v>6</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="I31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2283,15 +2294,15 @@
       <c r="H32" s="8">
         <v>6</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="I32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2331,15 +2342,15 @@
       <c r="H33" s="8">
         <v>8</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -2379,15 +2390,15 @@
       <c r="H34" s="8">
         <v>6</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
+      <c r="I34" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -2427,15 +2438,15 @@
       <c r="H35" s="8">
         <v>5</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
+      <c r="I35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -2475,15 +2486,15 @@
       <c r="H36" s="8">
         <v>5</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
+      <c r="I36" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2523,15 +2534,15 @@
       <c r="H37" s="8">
         <v>5</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="I37" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2573,13 +2584,13 @@
       <c r="H38" s="8">
         <v>27</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -2619,15 +2630,15 @@
       <c r="H39" s="8">
         <v>5</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="I39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2667,15 +2678,15 @@
       <c r="H40" s="8">
         <v>6</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="I40" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -2715,8 +2726,8 @@
       <c r="H41" s="8">
         <v>8</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>114</v>
+      <c r="I41" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
@@ -2763,8 +2774,8 @@
       <c r="H42" s="8">
         <v>8</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>118</v>
+      <c r="I42" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
@@ -3181,7 +3192,9 @@
       <c r="H51" s="8">
         <v>8</v>
       </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>
       <c r="L51" s="12"/>
@@ -3227,7 +3240,9 @@
       <c r="H52" s="8">
         <v>5</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="4"/>
       <c r="L52" s="12"/>
@@ -3271,7 +3286,9 @@
       <c r="H53" s="8">
         <v>3</v>
       </c>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="4"/>
       <c r="L53" s="12"/>
@@ -5500,7 +5517,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="21"/>
+      <c r="L103" s="20"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -5542,7 +5559,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="21"/>
+      <c r="L104" s="20"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -5582,7 +5599,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="21"/>
+      <c r="L105" s="20"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -5626,7 +5643,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="21"/>
+      <c r="L106" s="20"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -5670,7 +5687,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="21"/>
+      <c r="L107" s="20"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
